--- a/tests/testthat/fixtures/ex3/tables/irt_dich_all.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_dich_all.xlsx
@@ -552,31 +552,31 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="E2" t="n">
-        <v>81.1</v>
+        <v>81.21</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.77</v>
+        <v>-1.78</v>
       </c>
       <c r="G2" t="n">
         <v>0.06</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04</v>
+        <v>-0.13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -590,13 +590,13 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="E3" t="n">
-        <v>49.92</v>
+        <v>49.73</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
         <v>0.05</v>
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K3" t="n">
         <v>0.05</v>
@@ -628,22 +628,22 @@
         <v>2100</v>
       </c>
       <c r="D4" t="n">
-        <v>1350</v>
+        <v>1379</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>18.56</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="H4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="J4" t="n">
         <v>0.17</v>
@@ -652,7 +652,7 @@
         <v>0.06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -663,16 +663,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E5" t="n">
-        <v>75.76</v>
+        <v>75.95</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.49</v>
+        <v>-1.5</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
@@ -681,16 +681,16 @@
         <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="J5" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
@@ -701,13 +701,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D6" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E6" t="n">
-        <v>72.63</v>
+        <v>72.52</v>
       </c>
       <c r="F6" t="n">
         <v>-1.3</v>
@@ -719,7 +719,7 @@
         <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J6" t="n">
         <v>0.24</v>
@@ -739,34 +739,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D7" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E7" t="n">
-        <v>65.26</v>
+        <v>64.91</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.89</v>
+        <v>-0.87</v>
       </c>
       <c r="G7" t="n">
         <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="K7" t="n">
         <v>0.03</v>
       </c>
       <c r="L7" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -777,16 +777,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D8" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E8" t="n">
-        <v>62.99</v>
+        <v>62.35</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.77</v>
+        <v>-0.74</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
@@ -795,7 +795,7 @@
         <v>1.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="J8" t="n">
         <v>0.23</v>
@@ -804,7 +804,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
@@ -815,34 +815,34 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D9" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E9" t="n">
-        <v>63.19</v>
+        <v>63.76</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.67</v>
+        <v>-0.7</v>
       </c>
       <c r="G9" t="n">
         <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.25</v>
+        <v>-0.62</v>
       </c>
       <c r="J9" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -853,34 +853,34 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D10" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="E10" t="n">
-        <v>55.29</v>
+        <v>55.37</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="G10" t="n">
         <v>0.09</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="J10" t="n">
         <v>0.26</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11">
@@ -891,16 +891,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D11" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E11" t="n">
-        <v>51.61</v>
+        <v>51.04</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09</v>
+        <v>-0.07</v>
       </c>
       <c r="G11" t="n">
         <v>0.09</v>
@@ -909,16 +909,16 @@
         <v>0.98</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.56</v>
+        <v>-0.52</v>
       </c>
       <c r="J11" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
@@ -929,34 +929,34 @@
         <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D12" t="n">
         <v>567</v>
       </c>
       <c r="E12" t="n">
-        <v>46.91</v>
+        <v>47.62</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G12" t="n">
         <v>0.09</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.82</v>
+        <v>0.11</v>
       </c>
       <c r="J12" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="13">
@@ -967,34 +967,34 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D13" t="n">
         <v>485</v>
       </c>
       <c r="E13" t="n">
-        <v>40.62</v>
+        <v>42.47</v>
       </c>
       <c r="F13" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="G13" t="n">
         <v>0.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.37</v>
+        <v>0.09</v>
       </c>
       <c r="J13" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="14">
@@ -1005,34 +1005,34 @@
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D14" t="n">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E14" t="n">
-        <v>39.38</v>
+        <v>39.64</v>
       </c>
       <c r="F14" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="G14" t="n">
         <v>0.09</v>
       </c>
       <c r="H14" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.14</v>
+        <v>-0.04</v>
       </c>
       <c r="J14" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="K14" t="n">
         <v>0.08</v>
       </c>
       <c r="L14" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="15">
@@ -1043,16 +1043,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D15" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E15" t="n">
-        <v>37.21</v>
+        <v>37.46</v>
       </c>
       <c r="F15" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="G15" t="n">
         <v>0.09</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="J15" t="n">
         <v>0.29</v>
@@ -1070,7 +1070,7 @@
         <v>0.06</v>
       </c>
       <c r="L15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="16">
@@ -1081,16 +1081,16 @@
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D16" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E16" t="n">
-        <v>26.65</v>
+        <v>26.48</v>
       </c>
       <c r="F16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -1099,16 +1099,16 @@
         <v>0.94</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.29</v>
+        <v>-1.31</v>
       </c>
       <c r="J16" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="K16" t="n">
         <v>0.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="17">
@@ -1119,13 +1119,13 @@
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D17" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E17" t="n">
-        <v>22.99</v>
+        <v>23.08</v>
       </c>
       <c r="F17" t="n">
         <v>1.61</v>
@@ -1137,16 +1137,16 @@
         <v>0.96</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.71</v>
+        <v>-0.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -1194,25 +1194,25 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>15598</v>
+        <v>15677</v>
       </c>
       <c r="E2" t="n">
-        <v>15632</v>
+        <v>15711</v>
       </c>
       <c r="F2" t="n">
-        <v>15728</v>
+        <v>15807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="3">
@@ -1220,25 +1220,25 @@
         <v>52</v>
       </c>
       <c r="B3" t="n">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C3" t="n">
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>15565</v>
+        <v>15652</v>
       </c>
       <c r="E3" t="n">
-        <v>15629</v>
+        <v>15716</v>
       </c>
       <c r="F3" t="n">
-        <v>15810</v>
+        <v>15896</v>
       </c>
       <c r="G3" t="n">
         <v>0.557</v>
       </c>
       <c r="H3" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
     </row>
   </sheetData>
